--- a/diferentes_tipos de celdas.xlsx
+++ b/diferentes_tipos de celdas.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>se le pone valor</t>
   </si>
@@ -29,20 +29,28 @@
     <t>celda de error</t>
   </si>
   <si>
-    <t>poenr valor de fecha</t>
+    <t>poener valor de fecha</t>
   </si>
   <si>
     <t>poner de tipo numérico</t>
   </si>
   <si>
-    <t>poner un calendar</t>
+    <t>poner un string</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>formato de fecha d/m/yy h:mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy h:mm"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -72,15 +80,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -90,8 +99,8 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="n">
-        <v>43047.40352137732</v>
+      <c r="B1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -130,11 +139,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43047.40352112269</v>
+        <v>43047.430416863426</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n"/>
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n" s="1">
+        <v>43047.43041706018</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/diferentes_tipos de celdas.xlsx
+++ b/diferentes_tipos de celdas.xlsx
@@ -38,7 +38,7 @@
     <t>poner un string</t>
   </si>
   <si>
-    <t/>
+    <t>esto es un string</t>
   </si>
   <si>
     <t>formato de fecha d/m/yy h:mm</t>
@@ -139,7 +139,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43047.430416863426</v>
+        <v>43047.451905856484</v>
       </c>
     </row>
     <row r="8">
@@ -153,7 +153,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="1">
-        <v>43047.43041706018</v>
+        <v>43047.451906064816</v>
       </c>
     </row>
   </sheetData>

--- a/diferentes_tipos de celdas.xlsx
+++ b/diferentes_tipos de celdas.xlsx
@@ -139,7 +139,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43047.451905856484</v>
+        <v>43047.692215752315</v>
       </c>
     </row>
     <row r="8">
@@ -153,7 +153,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="1">
-        <v>43047.451906064816</v>
+        <v>43047.692215902774</v>
       </c>
     </row>
   </sheetData>

--- a/diferentes_tipos de celdas.xlsx
+++ b/diferentes_tipos de celdas.xlsx
@@ -139,7 +139,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43047.692215752315</v>
+        <v>43053.559834328706</v>
       </c>
     </row>
     <row r="8">
@@ -153,7 +153,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="1">
-        <v>43047.692215902774</v>
+        <v>43053.559834479165</v>
       </c>
     </row>
   </sheetData>

--- a/diferentes_tipos de celdas.xlsx
+++ b/diferentes_tipos de celdas.xlsx
@@ -139,7 +139,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43053.559834328706</v>
+        <v>43055.765722233795</v>
       </c>
     </row>
     <row r="8">
@@ -153,7 +153,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="1">
-        <v>43053.559834479165</v>
+        <v>43055.76572238426</v>
       </c>
     </row>
   </sheetData>
